--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Fasl</t>
+  </si>
+  <si>
+    <t>Fas</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fasl</t>
-  </si>
-  <si>
-    <t>Fas</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.088308</v>
       </c>
       <c r="I2">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256937</v>
       </c>
       <c r="J2">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256938</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N2">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O2">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P2">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q2">
-        <v>0.394269434064</v>
+        <v>0.259849832132</v>
       </c>
       <c r="R2">
-        <v>3.548424906576</v>
+        <v>2.338648489188</v>
       </c>
       <c r="S2">
-        <v>0.0238148689822324</v>
+        <v>0.01352982189676103</v>
       </c>
       <c r="T2">
-        <v>0.02381486898223239</v>
+        <v>0.01352982189676103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -611,10 +611,10 @@
         <v>0.088308</v>
       </c>
       <c r="I3">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256937</v>
       </c>
       <c r="J3">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256938</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>27.156609</v>
       </c>
       <c r="O3">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P3">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q3">
         <v>0.266460647508</v>
@@ -641,10 +641,10 @@
         <v>2.398145827572</v>
       </c>
       <c r="S3">
-        <v>0.01609489567556423</v>
+        <v>0.0138740328354243</v>
       </c>
       <c r="T3">
-        <v>0.01609489567556423</v>
+        <v>0.0138740328354243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.088308</v>
       </c>
       <c r="I4">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256937</v>
       </c>
       <c r="J4">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256938</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N4">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O4">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P4">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q4">
-        <v>0.171952886248</v>
+        <v>0.194548911612</v>
       </c>
       <c r="R4">
-        <v>1.547575976232</v>
+        <v>1.750940204508</v>
       </c>
       <c r="S4">
-        <v>0.01038638835098767</v>
+        <v>0.01012974340880827</v>
       </c>
       <c r="T4">
-        <v>0.01038638835098767</v>
+        <v>0.01012974340880828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -735,10 +735,10 @@
         <v>0.088308</v>
       </c>
       <c r="I5">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256937</v>
       </c>
       <c r="J5">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256938</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N5">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O5">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P5">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q5">
-        <v>0.101552816508</v>
+        <v>0.011680881828</v>
       </c>
       <c r="R5">
-        <v>0.9139753485719998</v>
+        <v>0.105127936452</v>
       </c>
       <c r="S5">
-        <v>0.006134046443788304</v>
+        <v>0.0006081983945622493</v>
       </c>
       <c r="T5">
-        <v>0.006134046443788304</v>
+        <v>0.0006081983945622494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +797,10 @@
         <v>0.088308</v>
       </c>
       <c r="I6">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256937</v>
       </c>
       <c r="J6">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256938</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N6">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O6">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P6">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q6">
-        <v>0.92747360904</v>
+        <v>1.099577649148</v>
       </c>
       <c r="R6">
-        <v>8.34726248136</v>
+        <v>9.896198842332</v>
       </c>
       <c r="S6">
-        <v>0.05602174699695447</v>
+        <v>0.05725264331544489</v>
       </c>
       <c r="T6">
-        <v>0.05602174699695445</v>
+        <v>0.0572526433154449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.088308</v>
       </c>
       <c r="I7">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256937</v>
       </c>
       <c r="J7">
-        <v>0.1201817669610377</v>
+        <v>0.1001061051256938</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N7">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O7">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P7">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q7">
-        <v>0.127971812936</v>
+        <v>0.09049087564</v>
       </c>
       <c r="R7">
-        <v>1.151746316424</v>
+        <v>0.8144178807599999</v>
       </c>
       <c r="S7">
-        <v>0.007729820511510625</v>
+        <v>0.004711665274693005</v>
       </c>
       <c r="T7">
-        <v>0.007729820511510622</v>
+        <v>0.004711665274693006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09613033333333333</v>
+        <v>0.264612</v>
       </c>
       <c r="H8">
-        <v>0.288391</v>
+        <v>0.793836</v>
       </c>
       <c r="I8">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="J8">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N8">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O8">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P8">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q8">
-        <v>1.287581604828</v>
+        <v>2.335894271644</v>
       </c>
       <c r="R8">
-        <v>11.588234443452</v>
+        <v>21.023048444796</v>
       </c>
       <c r="S8">
-        <v>0.07777317888135822</v>
+        <v>0.121624990886864</v>
       </c>
       <c r="T8">
-        <v>0.07777317888135822</v>
+        <v>0.1216249908868641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.09613033333333333</v>
+        <v>0.264612</v>
       </c>
       <c r="H9">
-        <v>0.288391</v>
+        <v>0.793836</v>
       </c>
       <c r="I9">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="J9">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>27.156609</v>
       </c>
       <c r="O9">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P9">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q9">
-        <v>0.8701912917910001</v>
+        <v>2.395321540236</v>
       </c>
       <c r="R9">
-        <v>7.831721626119</v>
+        <v>21.557893862124</v>
       </c>
       <c r="S9">
-        <v>0.05256175045037417</v>
+        <v>0.124719240951464</v>
       </c>
       <c r="T9">
-        <v>0.05256175045037417</v>
+        <v>0.124719240951464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.09613033333333333</v>
+        <v>0.264612</v>
       </c>
       <c r="H10">
-        <v>0.288391</v>
+        <v>0.793836</v>
       </c>
       <c r="I10">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="J10">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N10">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O10">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P10">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q10">
-        <v>0.5615534812015556</v>
+        <v>1.748878128804</v>
       </c>
       <c r="R10">
-        <v>5.053981330814</v>
+        <v>15.739903159236</v>
       </c>
       <c r="S10">
-        <v>0.03391924766645927</v>
+        <v>0.09106032283229974</v>
       </c>
       <c r="T10">
-        <v>0.03391924766645927</v>
+        <v>0.09106032283229974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.09613033333333333</v>
+        <v>0.264612</v>
       </c>
       <c r="H11">
-        <v>0.288391</v>
+        <v>0.793836</v>
       </c>
       <c r="I11">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="J11">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N11">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O11">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P11">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q11">
-        <v>0.3316451318743333</v>
+        <v>0.105004127676</v>
       </c>
       <c r="R11">
-        <v>2.984806186869</v>
+        <v>0.9450371490839999</v>
       </c>
       <c r="S11">
-        <v>0.02003220306167678</v>
+        <v>0.00546733909437104</v>
       </c>
       <c r="T11">
-        <v>0.02003220306167678</v>
+        <v>0.00546733909437104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.09613033333333333</v>
+        <v>0.264612</v>
       </c>
       <c r="H12">
-        <v>0.288391</v>
+        <v>0.793836</v>
       </c>
       <c r="I12">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="J12">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N12">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O12">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P12">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q12">
-        <v>3.028888000913333</v>
+        <v>9.884544126116001</v>
       </c>
       <c r="R12">
-        <v>27.25999200822</v>
+        <v>88.96089713504401</v>
       </c>
       <c r="S12">
-        <v>0.1829524803890779</v>
+        <v>0.5146669538315839</v>
       </c>
       <c r="T12">
-        <v>0.1829524803890779</v>
+        <v>0.5146669538315839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.09613033333333333</v>
+        <v>0.264612</v>
       </c>
       <c r="H13">
-        <v>0.288391</v>
+        <v>0.793836</v>
       </c>
       <c r="I13">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="J13">
-        <v>0.3924824472942499</v>
+        <v>0.8998938948743062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N13">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O13">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P13">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q13">
-        <v>0.4179227148664445</v>
+        <v>0.8134587438800001</v>
       </c>
       <c r="R13">
-        <v>3.761304433798001</v>
+        <v>7.32112869492</v>
       </c>
       <c r="S13">
-        <v>0.02524358684530349</v>
+        <v>0.04235504727772339</v>
       </c>
       <c r="T13">
-        <v>0.02524358684530348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1193626666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.358088</v>
-      </c>
-      <c r="I14">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="J14">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>13.394124</v>
-      </c>
-      <c r="N14">
-        <v>40.182372</v>
-      </c>
-      <c r="O14">
-        <v>0.1981570880876885</v>
-      </c>
-      <c r="P14">
-        <v>0.1981570880876885</v>
-      </c>
-      <c r="Q14">
-        <v>1.598758358304</v>
-      </c>
-      <c r="R14">
-        <v>14.388825224736</v>
-      </c>
-      <c r="S14">
-        <v>0.09656904022409786</v>
-      </c>
-      <c r="T14">
-        <v>0.09656904022409785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1193626666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.358088</v>
-      </c>
-      <c r="I15">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="J15">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>9.052203</v>
-      </c>
-      <c r="N15">
-        <v>27.156609</v>
-      </c>
-      <c r="O15">
-        <v>0.133921276767233</v>
-      </c>
-      <c r="P15">
-        <v>0.133921276767233</v>
-      </c>
-      <c r="Q15">
-        <v>1.080495089288</v>
-      </c>
-      <c r="R15">
-        <v>9.724455803592001</v>
-      </c>
-      <c r="S15">
-        <v>0.06526463064129459</v>
-      </c>
-      <c r="T15">
-        <v>0.06526463064129459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1193626666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.358088</v>
-      </c>
-      <c r="I16">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="J16">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.841584666666667</v>
-      </c>
-      <c r="N16">
-        <v>17.524754</v>
-      </c>
-      <c r="O16">
-        <v>0.08642233022214496</v>
-      </c>
-      <c r="P16">
-        <v>0.08642233022214496</v>
-      </c>
-      <c r="Q16">
-        <v>0.6972671233724445</v>
-      </c>
-      <c r="R16">
-        <v>6.275404110352</v>
-      </c>
-      <c r="S16">
-        <v>0.04211669420469802</v>
-      </c>
-      <c r="T16">
-        <v>0.04211669420469802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1193626666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.358088</v>
-      </c>
-      <c r="I17">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="J17">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.449952999999999</v>
-      </c>
-      <c r="N17">
-        <v>10.349859</v>
-      </c>
-      <c r="O17">
-        <v>0.05103974254078766</v>
-      </c>
-      <c r="P17">
-        <v>0.05103974254078766</v>
-      </c>
-      <c r="Q17">
-        <v>0.4117955899546666</v>
-      </c>
-      <c r="R17">
-        <v>3.706160309592</v>
-      </c>
-      <c r="S17">
-        <v>0.02487349303532258</v>
-      </c>
-      <c r="T17">
-        <v>0.02487349303532258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1193626666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.358088</v>
-      </c>
-      <c r="I18">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="J18">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>31.50814</v>
-      </c>
-      <c r="N18">
-        <v>94.52441999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.4661418151317115</v>
-      </c>
-      <c r="P18">
-        <v>0.4661418151317115</v>
-      </c>
-      <c r="Q18">
-        <v>3.760895612106666</v>
-      </c>
-      <c r="R18">
-        <v>33.84806050896</v>
-      </c>
-      <c r="S18">
-        <v>0.2271675877456791</v>
-      </c>
-      <c r="T18">
-        <v>0.2271675877456791</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1193626666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.358088</v>
-      </c>
-      <c r="I19">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="J19">
-        <v>0.4873357857447124</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.347459333333334</v>
-      </c>
-      <c r="N19">
-        <v>13.042378</v>
-      </c>
-      <c r="O19">
-        <v>0.06431774725043436</v>
-      </c>
-      <c r="P19">
-        <v>0.06431774725043435</v>
-      </c>
-      <c r="Q19">
-        <v>0.5189243392515557</v>
-      </c>
-      <c r="R19">
-        <v>4.670319053264</v>
-      </c>
-      <c r="S19">
-        <v>0.03134433989362025</v>
-      </c>
-      <c r="T19">
-        <v>0.03134433989362024</v>
+        <v>0.04235504727772339</v>
       </c>
     </row>
   </sheetData>
